--- a/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first_GVA.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST/ifo_qoq_matched_error_tables_first_GVA.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02515611366391362</v>
+        <v>-0.0227839658534362</v>
       </c>
       <c r="C2">
-        <v>0.6700290892046095</v>
+        <v>0.6421757934121076</v>
       </c>
       <c r="D2">
-        <v>0.7630950702788341</v>
+        <v>0.7299546130156783</v>
       </c>
       <c r="E2">
-        <v>0.873553129625688</v>
+        <v>0.8543738133953301</v>
       </c>
       <c r="F2">
-        <v>0.8937393165510414</v>
+        <v>0.8732649444381481</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7989723451147972</v>
+        <v>0.7639704308143828</v>
       </c>
       <c r="C3">
-        <v>1.153826359755487</v>
+        <v>1.10269471751686</v>
       </c>
       <c r="D3">
-        <v>2.737227787334076</v>
+        <v>2.612846386011487</v>
       </c>
       <c r="E3">
-        <v>1.654456946352511</v>
+        <v>1.616430136446202</v>
       </c>
       <c r="F3">
-        <v>1.484525017650302</v>
+        <v>1.458020551013975</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6507491877143168</v>
+        <v>0.6235520873978828</v>
       </c>
       <c r="C4">
-        <v>1.440965616355765</v>
+        <v>1.3761391622945</v>
       </c>
       <c r="D4">
-        <v>4.25614478305512</v>
+        <v>4.053773020290964</v>
       </c>
       <c r="E4">
-        <v>2.063042603305884</v>
+        <v>2.013398375953195</v>
       </c>
       <c r="F4">
-        <v>2.008579041523287</v>
+        <v>1.96168386987362</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7549035159497552</v>
+        <v>0.7192758613889139</v>
       </c>
       <c r="C5">
-        <v>0.9352353330044874</v>
+        <v>0.8905910875909095</v>
       </c>
       <c r="D5">
-        <v>1.548703067363985</v>
+        <v>1.471357591919539</v>
       </c>
       <c r="E5">
-        <v>1.244468990117466</v>
+        <v>1.212995297566952</v>
       </c>
       <c r="F5">
-        <v>1.016465860782211</v>
+        <v>1.002102960958012</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5506951494666404</v>
+        <v>0.541769264226673</v>
       </c>
       <c r="C6">
-        <v>0.8326996938578231</v>
+        <v>0.8089314641762144</v>
       </c>
       <c r="D6">
-        <v>1.130583084649802</v>
+        <v>1.078722909040149</v>
       </c>
       <c r="E6">
-        <v>1.063288805851826</v>
+        <v>1.038615862116572</v>
       </c>
       <c r="F6">
-        <v>0.9359400076949027</v>
+        <v>0.9104019409704378</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3427779825138497</v>
+        <v>0.3378155251717742</v>
       </c>
       <c r="C7">
-        <v>0.7198755222531169</v>
+        <v>0.6939632015921933</v>
       </c>
       <c r="D7">
-        <v>0.7611887648949676</v>
+        <v>0.7224693225991232</v>
       </c>
       <c r="E7">
-        <v>0.8724613257302398</v>
+        <v>0.8499819542785148</v>
       </c>
       <c r="F7">
-        <v>0.8269962338630216</v>
+        <v>0.8025803930388514</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2785452058294187</v>
+        <v>0.276410312919357</v>
       </c>
       <c r="C8">
-        <v>0.7452110002282555</v>
+        <v>0.7156251782359094</v>
       </c>
       <c r="D8">
-        <v>0.755564480174465</v>
+        <v>0.7145716310038928</v>
       </c>
       <c r="E8">
-        <v>0.8692321209978753</v>
+        <v>0.8453233884164644</v>
       </c>
       <c r="F8">
-        <v>0.8503972709168576</v>
+        <v>0.8234406660685688</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5878579279435056</v>
+        <v>0.553324246477921</v>
       </c>
       <c r="C9">
-        <v>0.7718874021757395</v>
+        <v>0.722017931190802</v>
       </c>
       <c r="D9">
-        <v>0.7808461204324781</v>
+        <v>0.7182827940224992</v>
       </c>
       <c r="E9">
-        <v>0.883654978163128</v>
+        <v>0.8475156600455824</v>
       </c>
       <c r="F9">
-        <v>0.6919509337265838</v>
+        <v>0.6705073294552746</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4484714681833606</v>
+        <v>0.4056188661620858</v>
       </c>
       <c r="C10">
-        <v>0.7994634851848846</v>
+        <v>0.7064691664491064</v>
       </c>
       <c r="D10">
-        <v>0.9212113069666014</v>
+        <v>0.7927601511797749</v>
       </c>
       <c r="E10">
-        <v>0.9597975343615972</v>
+        <v>0.8903707942086684</v>
       </c>
       <c r="F10">
-        <v>0.9295706423023884</v>
+        <v>0.856118606089144</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
